--- a/ValueSet-geccoplus-proms-responses.xlsx
+++ b/ValueSet-geccoplus-proms-responses.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,13 +42,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Proms in the context of GECCOplus</t>
+    <t>PROM responses in the context of GECCOplus</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Manuell code system for proms in order to be able to specify codes which are currently not assigned to any terminology</t>
+    <t>Response codes for PROMs of GECCOplus</t>
   </si>
   <si>
     <t>Purpose</t>
